--- a/biology/Botanique/Gadellier_sanguin/Gadellier_sanguin.xlsx
+++ b/biology/Botanique/Gadellier_sanguin/Gadellier_sanguin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ribes sanguineum
 Le Groseillier à fleurs, le Cassis-fleur ou le Groseillier sanguin (Ribes sanguineum) est une espèce d'arbrisseaux du genre Ribes de la famille des Grossulariaceae.
@@ -512,7 +524,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire de l'ouest des États-Unis.
 </t>
@@ -543,7 +557,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Groseillier à fleurs est cultivé aussi en Europe à des fins ornementales en isolé ou en haie fleurie.
 C'est une plante nectarifère utile pour alimenter les abeilles en début de saison.
@@ -575,7 +591,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le groseillier à fleurs est un arbuste au port arrondi à feuilles caduques pouvant mesurer 2 à 2,5 m de haut et de large.
 L'écorce est gris brunâtre avec des lenticelles brun pâle proéminentes.
@@ -610,7 +628,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Exposition : soleil, mi-ombre
 Type de sol : ordinaire, de préférence riche, humide et bien drainé
